--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2814.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2814.xlsx
@@ -354,7 +354,7 @@
         <v>2.44306357540221</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.363553620507493</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2814.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2814.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.172741409769097</v>
+        <v>0.8898788690567017</v>
       </c>
       <c r="B1">
-        <v>2.44306357540221</v>
+        <v>1.730800747871399</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.12269926071167</v>
       </c>
       <c r="D1">
-        <v>2.363553620507493</v>
+        <v>3.60997200012207</v>
       </c>
       <c r="E1">
-        <v>1.23187874106617</v>
+        <v>1.041465759277344</v>
       </c>
     </row>
   </sheetData>
